--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Has Children.xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Has Children.xlsx
@@ -26785,47 +26785,47 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>
@@ -26839,47 +26839,47 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>

--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Has Children.xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Has Children.xlsx
@@ -559,47 +559,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.515</t>
+          <t>0.546</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.575</t>
+          <t>0.551</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.495</t>
+          <t>0.544</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.539</t>
+          <t>0.541</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.562</t>
+          <t>0.561</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.532</t>
+          <t>0.535</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.024 (P = 0.182)</t>
+          <t>-0.005 (P = 0.617)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-0.012 (P = 0.735)</t>
+          <t>0.010 (P = 0.638)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.037 (P = 0.070)</t>
+          <t>-0.009 (P = 0.377)</t>
         </is>
       </c>
     </row>
@@ -779,22 +779,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.252</t>
+          <t>6.164</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.132</t>
+          <t>7.070</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.957</t>
+          <t>5.903</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6.235</t>
+          <t>6.236</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -804,22 +804,22 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6.033</t>
+          <t>6.034</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-0.016 (P = 0.846)</t>
+          <t>0.072 (P = 0.305)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-0.193 (P = 0.265)</t>
+          <t>-0.131 (P = 0.427)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.076 (P = 0.423)</t>
+          <t>0.130 (P = 0.091)</t>
         </is>
       </c>
     </row>
@@ -1054,17 +1054,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.404</t>
+          <t>3.941</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.519</t>
+          <t>4.730</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.030</t>
+          <t>3.713</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1084,17 +1084,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.004 (P = 0.970)</t>
+          <t>0.467 (P = 0.000)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-0.362 (P = 0.123)</t>
+          <t>0.426 (P = 0.027)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.161 (P = 0.146)</t>
+          <t>0.479 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -1328,17 +1328,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.695</t>
+          <t>6.777</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.115</t>
+          <t>7.113</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.555</t>
+          <t>6.680</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.283 (P = 0.001)</t>
+          <t>0.200 (P = 0.022)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.242 (P = 0.162)</t>
+          <t>0.243 (P = 0.197)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.314 (P = 0.001)</t>
+          <t>0.188 (P = 0.057)</t>
         </is>
       </c>
     </row>
@@ -1603,17 +1603,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.356</t>
+          <t>6.456</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.780</t>
+          <t>6.843</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.214</t>
+          <t>6.345</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1633,17 +1633,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.146 (P = 0.100)</t>
+          <t>0.046 (P = 0.616)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.085 (P = 0.627)</t>
+          <t>0.022 (P = 0.912)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.183 (P = 0.073)</t>
+          <t>0.053 (P = 0.609)</t>
         </is>
       </c>
     </row>
@@ -1878,17 +1878,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.603</t>
+          <t>5.458</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.337</t>
+          <t>5.900</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.357</t>
+          <t>5.331</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1908,17 +1908,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.381 (P = 0.000)</t>
+          <t>0.525 (P = 0.000)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-0.137 (P = 0.491)</t>
+          <t>0.300 (P = 0.101)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.564 (P = 0.000)</t>
+          <t>0.590 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -2153,22 +2153,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.130</t>
+          <t>6.132</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6.431</t>
+          <t>6.278</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6.030</t>
+          <t>6.089</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.000</t>
+          <t>6.004</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2178,22 +2178,22 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.930</t>
+          <t>5.935</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-0.130 (P = 0.194)</t>
+          <t>-0.128 (P = 0.198)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>-0.187 (P = 0.362)</t>
+          <t>-0.035 (P = 0.877)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-0.100 (P = 0.385)</t>
+          <t>-0.155 (P = 0.161)</t>
         </is>
       </c>
     </row>
@@ -2428,17 +2428,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.197</t>
+          <t>3.883</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5.185</t>
+          <t>4.535</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.866</t>
+          <t>3.695</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2458,17 +2458,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.214 (P = 0.023)</t>
+          <t>0.528 (P = 0.000)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>-0.489 (P = 0.031)</t>
+          <t>0.161 (P = 0.413)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.464 (P = 0.000)</t>
+          <t>0.634 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -2703,47 +2703,47 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.211</t>
+          <t>7.322</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.321</t>
+          <t>7.488</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7.174</t>
+          <t>7.273</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>7.437</t>
+          <t>7.481</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7.612</t>
+          <t>7.673</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7.385</t>
+          <t>7.425</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.226 (P = 0.004)</t>
+          <t>0.159 (P = 0.030)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.292 (P = 0.049)</t>
+          <t>0.184 (P = 0.223)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.210 (P = 0.020)</t>
+          <t>0.152 (P = 0.071)</t>
         </is>
       </c>
     </row>
@@ -2978,47 +2978,47 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.891</t>
+          <t>5.257</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.646</t>
+          <t>5.668</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4.641</t>
+          <t>5.139</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5.334</t>
+          <t>5.343</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>5.687</t>
+          <t>5.847</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>5.233</t>
+          <t>5.198</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.443 (P = 0.000)</t>
+          <t>0.086 (P = 0.347)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.041 (P = 0.860)</t>
+          <t>0.178 (P = 0.349)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.592 (P = 0.000)</t>
+          <t>0.059 (P = 0.568)</t>
         </is>
       </c>
     </row>
@@ -3253,47 +3253,47 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7.287</t>
+          <t>7.409</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.069</t>
+          <t>7.387</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7.358</t>
+          <t>7.415</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>7.278</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>7.274</t>
+          <t>7.373</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>7.279</t>
+          <t>7.383</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-0.009 (P = 0.929)</t>
+          <t>-0.028 (P = 0.739)</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.205 (P = 0.323)</t>
+          <t>-0.015 (P = 0.933)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-0.079 (P = 0.502)</t>
+          <t>-0.032 (P = 0.741)</t>
         </is>
       </c>
     </row>
@@ -3528,47 +3528,47 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5.734</t>
+          <t>5.793</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6.164</t>
+          <t>6.091</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5.592</t>
+          <t>5.705</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>5.403</t>
+          <t>5.439</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5.820</t>
+          <t>5.880</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>5.281</t>
+          <t>5.309</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-0.331 (P = 0.002)</t>
+          <t>-0.354 (P = 0.000)</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>-0.345 (P = 0.110)</t>
+          <t>-0.211 (P = 0.221)</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>-0.310 (P = 0.013)</t>
+          <t>-0.396 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -3803,47 +3803,47 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6.200</t>
+          <t>6.540</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6.486</t>
+          <t>6.485</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6.103</t>
+          <t>6.556</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>6.257</t>
+          <t>6.389</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>6.333</t>
+          <t>6.562</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>6.235</t>
+          <t>6.339</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.057 (P = 0.612)</t>
+          <t>-0.151 (P = 0.059)</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>-0.152 (P = 0.495)</t>
+          <t>0.077 (P = 0.656)</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.132 (P = 0.306)</t>
+          <t>-0.216 (P = 0.016)</t>
         </is>
       </c>
     </row>
@@ -4078,47 +4078,47 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6.262</t>
+          <t>6.674</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6.573</t>
+          <t>6.744</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6.156</t>
+          <t>6.653</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>6.423</t>
+          <t>6.475</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6.805</t>
+          <t>6.892</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>6.315</t>
+          <t>6.353</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.161 (P = 0.119)</t>
+          <t>-0.199 (P = 0.025)</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.254)</t>
+          <t>0.149 (P = 0.409)</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.159 (P = 0.185)</t>
+          <t>-0.300 (P = 0.003)</t>
         </is>
       </c>
     </row>
@@ -4353,47 +4353,47 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5.930</t>
+          <t>5.869</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>6.400</t>
+          <t>6.196</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>5.768</t>
+          <t>5.772</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5.496</t>
+          <t>5.585</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>6.081</t>
+          <t>6.206</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>5.333</t>
+          <t>5.401</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-0.433 (P = 0.000)</t>
+          <t>-0.284 (P = 0.004)</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>-0.319 (P = 0.147)</t>
+          <t>0.010 (P = 0.960)</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>-0.435 (P = 0.001)</t>
+          <t>-0.371 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -4628,47 +4628,47 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6.931</t>
+          <t>7.237</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>7.059</t>
+          <t>7.413</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>6.887</t>
+          <t>7.184</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>6.395</t>
+          <t>6.510</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>6.764</t>
+          <t>6.852</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>6.287</t>
+          <t>6.408</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-0.536 (P = 0.000)</t>
+          <t>-0.727 (P = 0.000)</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>-0.295 (P = 0.152)</t>
+          <t>-0.561 (P = 0.003)</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>-0.600 (P = 0.000)</t>
+          <t>-0.776 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -4903,47 +4903,47 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6.894</t>
+          <t>7.330</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>7.063</t>
+          <t>7.321</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6.838</t>
+          <t>7.332</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>6.745</t>
+          <t>6.799</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>6.717</t>
+          <t>6.813</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>6.754</t>
+          <t>6.795</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-0.149 (P = 0.149)</t>
+          <t>-0.531 (P = 0.000)</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>-0.346 (P = 0.106)</t>
+          <t>-0.507 (P = 0.004)</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>-0.085 (P = 0.473)</t>
+          <t>-0.538 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -5178,47 +5178,47 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4.089</t>
+          <t>4.271</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5.018</t>
+          <t>4.774</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3.778</t>
+          <t>4.118</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>3.827</t>
+          <t>3.887</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>4.386</t>
+          <t>4.503</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3.662</t>
+          <t>3.700</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-0.263 (P = 0.029)</t>
+          <t>-0.384 (P = 0.000)</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>-0.632 (P = 0.013)</t>
+          <t>-0.271 (P = 0.194)</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>-0.116 (P = 0.394)</t>
+          <t>-0.418 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -5453,47 +5453,47 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6.694</t>
+          <t>7.038</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6.782</t>
+          <t>6.935</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>6.664</t>
+          <t>7.067</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>6.531</t>
+          <t>6.592</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>6.595</t>
+          <t>6.746</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>6.513</t>
+          <t>6.548</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-0.163 (P = 0.095)</t>
+          <t>-0.446 (P = 0.000)</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>-0.186 (P = 0.347)</t>
+          <t>-0.189 (P = 0.253)</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>-0.152 (P = 0.175)</t>
+          <t>-0.519 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -5728,47 +5728,47 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>6.606</t>
+          <t>6.998</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>6.751</t>
+          <t>6.892</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>6.554</t>
+          <t>7.031</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>6.936</t>
+          <t>7.109</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>6.745</t>
+          <t>6.985</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>6.993</t>
+          <t>7.148</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.001)</t>
+          <t>0.112 (P = 0.175)</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>-0.006 (P = 0.976)</t>
+          <t>0.092 (P = 0.614)</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0.439 (P = 0.000)</t>
+          <t>0.118 (P = 0.199)</t>
         </is>
       </c>
     </row>
@@ -6003,47 +6003,47 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6.460</t>
+          <t>6.909</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>6.717</t>
+          <t>7.124</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>6.371</t>
+          <t>6.842</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>6.705</t>
+          <t>6.789</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>6.681</t>
+          <t>6.834</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>6.712</t>
+          <t>6.775</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0.245 (P = 0.018)</t>
+          <t>-0.119 (P = 0.195)</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>-0.036 (P = 0.845)</t>
+          <t>-0.290 (P = 0.101)</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>0.341 (P = 0.006)</t>
+          <t>-0.067 (P = 0.534)</t>
         </is>
       </c>
     </row>
@@ -6278,47 +6278,47 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7.669</t>
+          <t>7.804</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>7.450</t>
+          <t>7.626</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>7.742</t>
+          <t>7.857</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>7.104</t>
+          <t>7.199</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>7.077</t>
+          <t>7.114</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>7.111</t>
+          <t>7.224</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>-0.566 (P = 0.000)</t>
+          <t>-0.605 (P = 0.000)</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>-0.373 (P = 0.052)</t>
+          <t>-0.512 (P = 0.002)</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>-0.630 (P = 0.000)</t>
+          <t>-0.633 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -6553,47 +6553,47 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>6.592</t>
+          <t>6.398</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>6.720</t>
+          <t>6.822</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>6.548</t>
+          <t>6.272</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>6.430</t>
+          <t>6.535</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>6.842</t>
+          <t>7.005</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>6.307</t>
+          <t>6.396</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>-0.162 (P = 0.101)</t>
+          <t>0.138 (P = 0.124)</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>0.121 (P = 0.522)</t>
+          <t>0.183 (P = 0.229)</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>-0.240 (P = 0.036)</t>
+          <t>0.124 (P = 0.246)</t>
         </is>
       </c>
     </row>
@@ -6828,47 +6828,47 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7.111</t>
+          <t>7.470</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>7.372</t>
+          <t>7.454</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>7.024</t>
+          <t>7.474</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>7.503</t>
+          <t>7.570</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>7.536</t>
+          <t>7.593</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>7.494</t>
+          <t>7.564</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>0.392 (P = 0.000)</t>
+          <t>0.100 (P = 0.136)</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>0.163 (P = 0.415)</t>
+          <t>0.139 (P = 0.407)</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>0.469 (P = 0.000)</t>
+          <t>0.089 (P = 0.217)</t>
         </is>
       </c>
     </row>
@@ -7103,47 +7103,47 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.996</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>6.663</t>
+          <t>6.923</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>6.341</t>
+          <t>7.016</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>6.717</t>
+          <t>6.775</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>6.692</t>
+          <t>6.749</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>6.724</t>
+          <t>6.782</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0.297 (P = 0.015)</t>
+          <t>-0.221 (P = 0.002)</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>0.029 (P = 0.904)</t>
+          <t>-0.174 (P = 0.355)</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>0.383 (P = 0.007)</t>
+          <t>-0.234 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -7378,47 +7378,47 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>4.661</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>5.363</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
           <t>4.449</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>5.532</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>4.076</t>
-        </is>
-      </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>5.177</t>
+          <t>5.061</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>5.726</t>
+          <t>5.658</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>5.016</t>
+          <t>4.881</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>0.728 (P = 0.000)</t>
+          <t>0.400 (P = 0.000)</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>0.193 (P = 0.423)</t>
+          <t>0.295 (P = 0.125)</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>0.941 (P = 0.000)</t>
+          <t>0.432 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -7653,47 +7653,47 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5.697</t>
+          <t>6.030</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>6.166</t>
+          <t>6.261</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>5.537</t>
+          <t>5.961</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>6.320</t>
+          <t>6.375</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>6.364</t>
+          <t>6.430</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>6.308</t>
+          <t>6.359</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>0.624 (P = 0.000)</t>
+          <t>0.345 (P = 0.000)</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>0.198 (P = 0.395)</t>
+          <t>0.169 (P = 0.342)</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>0.771 (P = 0.000)</t>
+          <t>0.398 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -7928,47 +7928,47 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>5.396</t>
+          <t>5.644</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>6.165</t>
+          <t>6.276</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>5.120</t>
+          <t>5.448</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>5.628</t>
+          <t>5.699</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>6.146</t>
+          <t>6.276</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>5.476</t>
+          <t>5.520</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.049)</t>
+          <t>0.055 (P = 0.546)</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>-0.018 (P = 0.934)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>0.357 (P = 0.010)</t>
+          <t>0.072 (P = 0.495)</t>
         </is>
       </c>
     </row>
@@ -8203,47 +8203,47 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6.287</t>
+          <t>6.699</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>6.663</t>
+          <t>6.793</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>6.160</t>
+          <t>6.671</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>6.466</t>
+          <t>6.583</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>6.631</t>
+          <t>6.712</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>6.419</t>
+          <t>6.546</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>0.179 (P = 0.117)</t>
+          <t>-0.115 (P = 0.176)</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>-0.033 (P = 0.887)</t>
+          <t>-0.082 (P = 0.691)</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>0.258 (P = 0.050)</t>
+          <t>-0.125 (P = 0.177)</t>
         </is>
       </c>
     </row>
@@ -8478,47 +8478,47 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>5.279</t>
+          <t>5.514</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>6.039</t>
+          <t>5.944</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>5.026</t>
+          <t>5.387</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>5.101</t>
+          <t>5.181</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>5.625</t>
+          <t>5.827</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>4.949</t>
+          <t>4.991</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>-0.179 (P = 0.114)</t>
+          <t>-0.333 (P = 0.001)</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>-0.414 (P = 0.064)</t>
+          <t>-0.117 (P = 0.567)</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>-0.077 (P = 0.555)</t>
+          <t>-0.396 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -8753,47 +8753,47 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>5.724</t>
+          <t>6.284</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>6.284</t>
+          <t>6.319</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>5.542</t>
+          <t>6.274</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>6.311</t>
+          <t>6.362</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>6.346</t>
+          <t>6.407</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>6.301</t>
+          <t>6.349</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>0.587 (P = 0.000)</t>
+          <t>0.078 (P = 0.249)</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>0.062 (P = 0.786)</t>
+          <t>0.088 (P = 0.545)</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>0.759 (P = 0.000)</t>
+          <t>0.075 (P = 0.326)</t>
         </is>
       </c>
     </row>
@@ -9028,47 +9028,47 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3.600</t>
+          <t>3.542</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>4.664</t>
+          <t>4.300</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3.252</t>
+          <t>3.320</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>3.776</t>
+          <t>3.769</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>4.407</t>
+          <t>4.450</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>3.592</t>
+          <t>3.569</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>0.176 (P = 0.070)</t>
+          <t>0.226 (P = 0.001)</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>-0.257 (P = 0.257)</t>
+          <t>0.150 (P = 0.305)</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>0.340 (P = 0.001)</t>
+          <t>0.249 (P = 0.002)</t>
         </is>
       </c>
     </row>
@@ -9303,47 +9303,47 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.733</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>6.860</t>
+          <t>7.395</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>7.345</t>
+          <t>7.831</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>7.783</t>
+          <t>7.880</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>7.431</t>
+          <t>7.543</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>7.883</t>
+          <t>7.978</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>0.557 (P = 0.000)</t>
+          <t>0.147 (P = 0.031)</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>0.571 (P = 0.001)</t>
+          <t>0.148 (P = 0.308)</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>0.538 (P = 0.000)</t>
+          <t>0.146 (P = 0.057)</t>
         </is>
       </c>
     </row>
@@ -9577,47 +9577,47 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4.495</t>
+          <t>4.621</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>5.166</t>
+          <t>4.900</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4.278</t>
+          <t>4.541</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4.823</t>
+          <t>4.829</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>5.080</t>
+          <t>5.110</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>4.749</t>
+          <t>4.750</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>0.328 (P = 0.001)</t>
+          <t>0.209 (P = 0.000)</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>-0.086 (P = 0.683)</t>
+          <t>0.210 (P = 0.081)</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>0.471 (P = 0.000)</t>
+          <t>0.209 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -9852,47 +9852,47 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.790</t>
+          <t>4.658</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>5.417</t>
+          <t>4.887</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>4.585</t>
+          <t>4.591</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>4.890</t>
+          <t>4.903</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>5.243</t>
+          <t>5.284</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>4.788</t>
+          <t>4.793</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>0.100 (P = 0.257)</t>
+          <t>0.246 (P = 0.000)</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>-0.174 (P = 0.387)</t>
+          <t>0.396 (P = 0.003)</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>0.202 (P = 0.038)</t>
+          <t>0.202 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -10127,47 +10127,47 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>7.089</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>7.107</t>
+          <t>7.198</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>7.083</t>
+          <t>7.434</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>7.609</t>
+          <t>7.631</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>7.438</t>
+          <t>7.500</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>7.659</t>
+          <t>7.668</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>0.520 (P = 0.000)</t>
+          <t>0.249 (P = 0.000)</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>0.331 (P = 0.052)</t>
+          <t>0.302 (P = 0.022)</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>0.575 (P = 0.000)</t>
+          <t>0.234 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -10402,47 +10402,47 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>6.901</t>
+          <t>7.441</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>7.031</t>
+          <t>7.242</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>6.855</t>
+          <t>7.499</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>7.377</t>
+          <t>7.480</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>7.051</t>
+          <t>7.100</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>7.472</t>
+          <t>7.592</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>0.477 (P = 0.000)</t>
+          <t>0.039 (P = 0.672)</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>0.020 (P = 0.919)</t>
+          <t>-0.142 (P = 0.511)</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>0.617 (P = 0.000)</t>
+          <t>0.093 (P = 0.365)</t>
         </is>
       </c>
     </row>
@@ -10676,47 +10676,47 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>6.288</t>
+          <t>6.622</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>6.470</t>
+          <t>6.379</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>6.224</t>
+          <t>6.695</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>6.010</t>
+          <t>6.106</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>6.271</t>
+          <t>6.326</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>5.935</t>
+          <t>6.040</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>-0.278 (P = 0.012)</t>
+          <t>-0.516 (P = 0.000)</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>-0.200 (P = 0.383)</t>
+          <t>-0.053 (P = 0.796)</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>-0.289 (P = 0.022)</t>
+          <t>-0.656 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -10951,47 +10951,47 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>6.737</t>
+          <t>7.071</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>6.817</t>
+          <t>7.063</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>6.710</t>
+          <t>7.073</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>6.723</t>
+          <t>6.779</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>6.645</t>
+          <t>6.732</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>6.746</t>
+          <t>6.791</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>-0.013 (P = 0.892)</t>
+          <t>-0.292 (P = 0.000)</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>-0.173 (P = 0.388)</t>
+          <t>-0.332 (P = 0.047)</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>0.035 (P = 0.747)</t>
+          <t>-0.282 (P = 0.002)</t>
         </is>
       </c>
     </row>
@@ -11226,47 +11226,47 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>5.826</t>
+          <t>6.177</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>6.479</t>
+          <t>6.505</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>5.608</t>
+          <t>6.082</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>5.766</t>
+          <t>5.798</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>6.234</t>
+          <t>6.276</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>5.632</t>
+          <t>5.659</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>-0.061 (P = 0.624)</t>
+          <t>-0.379 (P = 0.000)</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>-0.245 (P = 0.315)</t>
+          <t>-0.229 (P = 0.197)</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>0.023 (P = 0.871)</t>
+          <t>-0.422 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -11501,47 +11501,47 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>5.790</t>
+          <t>5.835</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>6.473</t>
+          <t>6.181</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>5.562</t>
+          <t>5.733</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>5.615</t>
+          <t>5.636</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>6.093</t>
+          <t>6.157</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>5.474</t>
+          <t>5.483</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.130)</t>
+          <t>-0.199 (P = 0.040)</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>-0.380 (P = 0.104)</t>
+          <t>-0.023 (P = 0.900)</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>-0.088 (P = 0.508)</t>
+          <t>-0.250 (P = 0.026)</t>
         </is>
       </c>
     </row>
@@ -11776,47 +11776,47 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2.786</t>
+          <t>2.591</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>4.311</t>
+          <t>4.114</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2.277</t>
+          <t>2.144</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2.181</t>
+          <t>2.123</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>3.523</t>
+          <t>3.486</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>1.795</t>
+          <t>1.723</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>-0.605 (P = 0.000)</t>
+          <t>-0.468 (P = 0.000)</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>-0.788 (P = 0.002)</t>
+          <t>-0.629 (P = 0.000)</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>-0.482 (P = 0.000)</t>
+          <t>-0.421 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -12051,47 +12051,47 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>7.376</t>
+          <t>7.623</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>7.457</t>
+          <t>7.540</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>7.349</t>
+          <t>7.647</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>7.392</t>
+          <t>7.473</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>7.459</t>
+          <t>7.555</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>7.373</t>
+          <t>7.449</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>0.016 (P = 0.869)</t>
+          <t>-0.150 (P = 0.041)</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>0.002 (P = 0.993)</t>
+          <t>0.014 (P = 0.924)</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>0.023 (P = 0.835)</t>
+          <t>-0.199 (P = 0.019)</t>
         </is>
       </c>
     </row>
@@ -12326,47 +12326,47 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>6.903</t>
+          <t>7.021</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>7.039</t>
+          <t>7.152</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>6.855</t>
+          <t>6.979</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>6.718</t>
+          <t>6.825</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>7.178</t>
+          <t>7.330</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>6.577</t>
+          <t>6.664</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>-0.186 (P = 0.058)</t>
+          <t>-0.196 (P = 0.042)</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>0.139 (P = 0.444)</t>
+          <t>0.178 (P = 0.317)</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>-0.278 (P = 0.015)</t>
+          <t>-0.315 (P = 0.005)</t>
         </is>
       </c>
     </row>
@@ -12601,47 +12601,47 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>5.446</t>
+          <t>5.763</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>6.099</t>
+          <t>6.303</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>5.204</t>
+          <t>5.588</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>5.708</t>
+          <t>5.747</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>6.194</t>
+          <t>6.354</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>5.567</t>
+          <t>5.550</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>0.261 (P = 0.041)</t>
+          <t>-0.017 (P = 0.875)</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>0.095 (P = 0.691)</t>
+          <t>0.051 (P = 0.797)</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>0.363 (P = 0.015)</t>
+          <t>-0.038 (P = 0.756)</t>
         </is>
       </c>
     </row>
@@ -12876,47 +12876,47 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>5.366</t>
+          <t>5.486</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>6.199</t>
+          <t>6.157</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>5.087</t>
+          <t>5.288</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>5.039</t>
+          <t>5.072</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>5.686</t>
+          <t>5.829</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>4.852</t>
+          <t>4.848</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.009)</t>
+          <t>-0.415 (P = 0.000)</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>-0.512 (P = 0.036)</t>
+          <t>-0.329 (P = 0.051)</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>-0.235 (P = 0.102)</t>
+          <t>-0.440 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -13151,47 +13151,47 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.281</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>7.172</t>
+          <t>7.287</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>7.244</t>
+          <t>7.279</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>7.288</t>
+          <t>7.338</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>7.386</t>
+          <t>7.472</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>7.259</t>
+          <t>7.300</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>0.062 (P = 0.457)</t>
+          <t>0.057 (P = 0.509)</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>0.214 (P = 0.177)</t>
+          <t>0.185 (P = 0.240)</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>0.016 (P = 0.871)</t>
+          <t>0.021 (P = 0.840)</t>
         </is>
       </c>
     </row>
@@ -13426,47 +13426,47 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>7.161</t>
+          <t>7.388</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>7.069</t>
+          <t>7.273</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>7.192</t>
+          <t>7.422</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>7.748</t>
+          <t>7.824</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.530</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>7.866</t>
+          <t>7.911</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>0.588 (P = 0.000)</t>
+          <t>0.436 (P = 0.000)</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>0.281 (P = 0.090)</t>
+          <t>0.257 (P = 0.153)</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>0.674 (P = 0.000)</t>
+          <t>0.489 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -13701,47 +13701,47 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.514</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>6.686</t>
+          <t>6.657</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>6.328</t>
+          <t>6.471</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>6.093</t>
+          <t>6.215</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>6.168</t>
+          <t>6.459</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>6.071</t>
+          <t>6.141</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.001)</t>
+          <t>-0.299 (P = 0.003)</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>-0.518 (P = 0.015)</t>
+          <t>-0.198 (P = 0.275)</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>-0.257 (P = 0.024)</t>
+          <t>-0.330 (P = 0.006)</t>
         </is>
       </c>
     </row>
@@ -13976,47 +13976,47 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>5.260</t>
+          <t>5.367</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>6.091</t>
+          <t>5.995</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>4.976</t>
+          <t>5.181</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>4.788</t>
+          <t>4.814</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>5.476</t>
+          <t>5.615</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>4.587</t>
+          <t>4.577</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>-0.473 (P = 0.000)</t>
+          <t>-0.553 (P = 0.000)</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>-0.615 (P = 0.013)</t>
+          <t>-0.379 (P = 0.040)</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>-0.389 (P = 0.005)</t>
+          <t>-0.604 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -14250,47 +14250,47 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>7.156</t>
+          <t>7.402</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>7.005</t>
+          <t>7.215</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>7.205</t>
+          <t>7.456</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>7.449</t>
+          <t>7.535</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>7.077</t>
+          <t>7.172</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>7.559</t>
+          <t>7.641</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>0.293 (P = 0.000)</t>
+          <t>0.133 (P = 0.065)</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>0.072 (P = 0.685)</t>
+          <t>-0.043 (P = 0.790)</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>0.353 (P = 0.000)</t>
+          <t>0.185 (P = 0.021)</t>
         </is>
       </c>
     </row>
@@ -14524,47 +14524,47 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>7.189</t>
+          <t>7.723</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>6.833</t>
+          <t>7.505</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>7.303</t>
+          <t>7.784</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>7.887</t>
+          <t>7.955</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>7.484</t>
+          <t>7.679</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>8.003</t>
+          <t>8.032</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>0.698 (P = 0.000)</t>
+          <t>0.232 (P = 0.000)</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>0.651 (P = 0.000)</t>
+          <t>0.175 (P = 0.136)</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>0.699 (P = 0.000)</t>
+          <t>0.248 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -14798,47 +14798,47 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>5.486</t>
+          <t>5.389</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>6.055</t>
+          <t>5.939</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>5.297</t>
+          <t>5.233</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>5.811</t>
+          <t>5.884</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>6.172</t>
+          <t>6.249</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>5.709</t>
+          <t>5.781</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>0.325 (P = 0.000)</t>
+          <t>0.496 (P = 0.000)</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>0.117 (P = 0.471)</t>
+          <t>0.309 (P = 0.115)</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>0.413 (P = 0.000)</t>
+          <t>0.548 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -15072,47 +15072,47 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>6.506</t>
+          <t>6.393</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>6.910</t>
+          <t>6.925</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>6.376</t>
+          <t>6.242</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>6.906</t>
+          <t>6.901</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>7.165</t>
+          <t>7.184</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>6.833</t>
+          <t>6.820</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>0.401 (P = 0.000)</t>
+          <t>0.508 (P = 0.000)</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>0.255 (P = 0.123)</t>
+          <t>0.259 (P = 0.069)</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>0.457 (P = 0.000)</t>
+          <t>0.579 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -15347,47 +15347,47 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>3.605</t>
+          <t>3.741</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>4.934</t>
+          <t>4.737</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>3.141</t>
+          <t>3.447</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>3.523</t>
+          <t>3.570</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>4.191</t>
+          <t>4.486</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>3.329</t>
+          <t>3.300</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>-0.082 (P = 0.493)</t>
+          <t>-0.171 (P = 0.107)</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>-0.743 (P = 0.004)</t>
+          <t>-0.251 (P = 0.237)</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>0.188 (P = 0.160)</t>
+          <t>-0.147 (P = 0.230)</t>
         </is>
       </c>
     </row>
@@ -15622,47 +15622,47 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>5.936</t>
+          <t>5.856</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>6.234</t>
+          <t>6.265</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>5.838</t>
+          <t>5.742</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>6.095</t>
+          <t>6.202</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>6.124</t>
+          <t>6.259</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>6.087</t>
+          <t>6.186</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>0.159 (P = 0.147)</t>
+          <t>0.346 (P = 0.004)</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>-0.109 (P = 0.617)</t>
+          <t>-0.005 (P = 0.981)</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>0.249 (P = 0.049)</t>
+          <t>0.444 (P = 0.002)</t>
         </is>
       </c>
     </row>
@@ -15897,47 +15897,47 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>7.273</t>
+          <t>7.565</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>6.980</t>
+          <t>7.184</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>7.368</t>
+          <t>7.672</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>7.657</t>
+          <t>7.856</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>6.922</t>
+          <t>7.149</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>7.870</t>
+          <t>8.053</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>0.384 (P = 0.000)</t>
+          <t>0.290 (P = 0.003)</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>-0.058 (P = 0.775)</t>
+          <t>-0.034 (P = 0.870)</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>0.502 (P = 0.000)</t>
+          <t>0.381 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -16172,47 +16172,47 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>7.521</t>
+          <t>7.874</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>7.110</t>
+          <t>7.163</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>7.657</t>
+          <t>8.079</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>8.020</t>
+          <t>8.103</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>7.368</t>
+          <t>7.380</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>8.209</t>
+          <t>8.312</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>0.500 (P = 0.000)</t>
+          <t>0.229 (P = 0.001)</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>0.258 (P = 0.124)</t>
+          <t>0.216 (P = 0.174)</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>0.553 (P = 0.000)</t>
+          <t>0.233 (P = 0.004)</t>
         </is>
       </c>
     </row>
@@ -16447,47 +16447,47 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>6.631</t>
+          <t>7.124</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>6.749</t>
+          <t>6.768</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>6.592</t>
+          <t>7.223</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>7.196</t>
+          <t>7.287</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>6.833</t>
+          <t>6.939</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>7.300</t>
+          <t>7.382</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>0.565 (P = 0.000)</t>
+          <t>0.162 (P = 0.017)</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>0.083 (P = 0.711)</t>
+          <t>0.172 (P = 0.286)</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>0.707 (P = 0.000)</t>
+          <t>0.160 (P = 0.033)</t>
         </is>
       </c>
     </row>
@@ -16722,47 +16722,47 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>6.448</t>
+          <t>6.938</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>6.671</t>
+          <t>6.810</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>6.372</t>
+          <t>6.975</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>6.821</t>
+          <t>6.889</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>6.836</t>
+          <t>6.930</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>6.817</t>
+          <t>6.877</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>0.374 (P = 0.001)</t>
+          <t>-0.049 (P = 0.493)</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>0.165 (P = 0.439)</t>
+          <t>0.120 (P = 0.413)</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>0.444 (P = 0.001)</t>
+          <t>-0.099 (P = 0.234)</t>
         </is>
       </c>
     </row>
@@ -16997,47 +16997,47 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>5.833</t>
+          <t>6.278</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>6.270</t>
+          <t>6.310</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>5.678</t>
+          <t>6.268</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>5.505</t>
+          <t>5.664</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>5.856</t>
+          <t>6.091</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>5.404</t>
+          <t>5.534</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.005)</t>
+          <t>-0.614 (P = 0.000)</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>-0.414 (P = 0.084)</t>
+          <t>-0.219 (P = 0.213)</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>-0.274 (P = 0.039)</t>
+          <t>-0.734 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -17272,47 +17272,47 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>5.702</t>
+          <t>5.720</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>6.467</t>
+          <t>6.289</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>5.406</t>
+          <t>5.519</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>4.907</t>
+          <t>5.211</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>6.092</t>
+          <t>6.220</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>4.540</t>
+          <t>4.856</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>-0.796 (P = 0.000)</t>
+          <t>-0.508 (P = 0.000)</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>-0.375 (P = 0.077)</t>
+          <t>-0.069 (P = 0.734)</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>-0.867 (P = 0.000)</t>
+          <t>-0.663 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -17547,47 +17547,47 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>6.038</t>
+          <t>6.125</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>6.419</t>
+          <t>6.215</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>5.908</t>
+          <t>6.100</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>5.392</t>
+          <t>5.491</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>5.834</t>
+          <t>5.972</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>5.263</t>
+          <t>5.353</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>-0.646 (P = 0.000)</t>
+          <t>-0.635 (P = 0.000)</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>-0.585 (P = 0.007)</t>
+          <t>-0.243 (P = 0.206)</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>-0.644 (P = 0.000)</t>
+          <t>-0.747 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -17822,47 +17822,47 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>4.972</t>
+          <t>5.167</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>5.728</t>
+          <t>5.628</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>4.700</t>
+          <t>5.025</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>5.459</t>
+          <t>5.474</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>5.798</t>
+          <t>5.891</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>5.358</t>
+          <t>5.345</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>0.487 (P = 0.000)</t>
+          <t>0.306 (P = 0.003)</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>0.070 (P = 0.773)</t>
+          <t>0.262 (P = 0.199)</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>0.658 (P = 0.000)</t>
+          <t>0.320 (P = 0.008)</t>
         </is>
       </c>
     </row>
@@ -18097,47 +18097,47 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>6.369</t>
+          <t>6.862</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>6.557</t>
+          <t>6.724</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>6.308</t>
+          <t>6.901</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>6.422</t>
+          <t>6.576</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>6.435</t>
+          <t>6.622</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>6.419</t>
+          <t>6.563</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>0.053 (P = 0.602)</t>
+          <t>-0.286 (P = 0.002)</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>-0.122 (P = 0.543)</t>
+          <t>-0.103 (P = 0.583)</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>0.111 (P = 0.349)</t>
+          <t>-0.338 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -18372,47 +18372,47 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>4.338</t>
+          <t>4.534</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>5.453</t>
+          <t>5.315</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>3.967</t>
+          <t>4.300</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>4.523</t>
+          <t>4.549</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>4.706</t>
+          <t>4.876</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>4.471</t>
+          <t>4.451</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>0.185 (P = 0.155)</t>
+          <t>0.016 (P = 0.871)</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>-0.746 (P = 0.003)</t>
+          <t>-0.438 (P = 0.010)</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>0.504 (P = 0.001)</t>
+          <t>0.152 (P = 0.182)</t>
         </is>
       </c>
     </row>
@@ -18647,47 +18647,47 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>5.135</t>
+          <t>5.561</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>5.977</t>
+          <t>5.864</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>4.857</t>
+          <t>5.476</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>5.809</t>
+          <t>5.758</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>5.641</t>
+          <t>5.759</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>5.858</t>
+          <t>5.758</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>0.674 (P = 0.000)</t>
+          <t>0.197 (P = 0.079)</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>-0.335 (P = 0.179)</t>
+          <t>-0.105 (P = 0.671)</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>1.001 (P = 0.000)</t>
+          <t>0.282 (P = 0.025)</t>
         </is>
       </c>
     </row>
@@ -18922,47 +18922,47 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>5.802</t>
+          <t>5.569</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>6.218</t>
+          <t>5.923</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>5.659</t>
+          <t>5.460</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>5.165</t>
+          <t>5.141</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>6.046</t>
+          <t>6.018</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>4.908</t>
+          <t>4.873</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>-0.638 (P = 0.000)</t>
+          <t>-0.427 (P = 0.000)</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>-0.172 (P = 0.405)</t>
+          <t>0.095 (P = 0.649)</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>-0.751 (P = 0.000)</t>
+          <t>-0.587 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -19197,47 +19197,47 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>6.438</t>
+          <t>6.309</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>6.611</t>
+          <t>6.394</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>6.380</t>
+          <t>6.284</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>6.286</t>
+          <t>6.317</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>6.522</t>
+          <t>6.566</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>6.219</t>
+          <t>6.244</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>-0.152 (P = 0.138)</t>
+          <t>0.008 (P = 0.944)</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>-0.089 (P = 0.648)</t>
+          <t>0.171 (P = 0.331)</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>-0.161 (P = 0.179)</t>
+          <t>-0.041 (P = 0.764)</t>
         </is>
       </c>
     </row>
@@ -19472,47 +19472,47 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>6.204</t>
+          <t>6.366</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>6.477</t>
+          <t>6.472</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>6.111</t>
+          <t>6.333</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>6.029</t>
+          <t>6.102</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>6.562</t>
+          <t>6.629</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>5.875</t>
+          <t>5.939</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.098)</t>
+          <t>-0.264 (P = 0.019)</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>0.085 (P = 0.663)</t>
+          <t>0.157 (P = 0.465)</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>-0.236 (P = 0.057)</t>
+          <t>-0.393 (P = 0.003)</t>
         </is>
       </c>
     </row>
@@ -19747,47 +19747,47 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>5.095</t>
+          <t>5.139</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>6.014</t>
+          <t>5.917</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>4.763</t>
+          <t>4.882</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>5.115</t>
+          <t>5.137</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>5.990</t>
+          <t>5.905</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>4.851</t>
+          <t>4.884</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>0.020 (P = 0.858)</t>
+          <t>-0.001 (P = 0.990)</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>-0.024 (P = 0.908)</t>
+          <t>-0.012 (P = 0.952)</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>0.088 (P = 0.509)</t>
+          <t>0.002 (P = 0.989)</t>
         </is>
       </c>
     </row>
@@ -20022,47 +20022,47 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>4.896</t>
+          <t>4.899</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>5.933</t>
+          <t>5.778</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>4.543</t>
+          <t>4.635</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>4.593</t>
+          <t>4.583</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>5.615</t>
+          <t>5.688</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>4.286</t>
+          <t>4.252</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>-0.303 (P = 0.011)</t>
+          <t>-0.316 (P = 0.009)</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>-0.318 (P = 0.153)</t>
+          <t>-0.090 (P = 0.690)</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>-0.257 (P = 0.062)</t>
+          <t>-0.384 (P = 0.007)</t>
         </is>
       </c>
     </row>
@@ -20297,47 +20297,47 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>6.972</t>
+          <t>7.327</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>6.976</t>
+          <t>7.138</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>6.970</t>
+          <t>7.382</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>7.672</t>
+          <t>7.763</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>7.447</t>
+          <t>7.581</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>7.737</t>
+          <t>7.816</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>0.700 (P = 0.000)</t>
+          <t>0.436 (P = 0.000)</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>0.472 (P = 0.007)</t>
+          <t>0.443 (P = 0.009)</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>0.767 (P = 0.000)</t>
+          <t>0.434 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -20572,47 +20572,47 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>7.881</t>
+          <t>8.205</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>7.736</t>
+          <t>7.991</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>7.928</t>
+          <t>8.266</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>8.211</t>
+          <t>8.220</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>8.206</t>
+          <t>8.196</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>8.213</t>
+          <t>8.227</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.000)</t>
+          <t>0.015 (P = 0.811)</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>0.470 (P = 0.009)</t>
+          <t>0.205 (P = 0.182)</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>0.285 (P = 0.007)</t>
+          <t>-0.039 (P = 0.571)</t>
         </is>
       </c>
     </row>
@@ -20847,47 +20847,47 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>7.841</t>
+          <t>8.178</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>7.728</t>
+          <t>8.046</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>7.877</t>
+          <t>8.215</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>8.215</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>8.221</t>
+          <t>8.224</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>8.207</t>
+          <t>8.213</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>0.370 (P = 0.000)</t>
+          <t>0.037 (P = 0.589)</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>0.493 (P = 0.003)</t>
+          <t>0.178 (P = 0.293)</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.001)</t>
+          <t>-0.003 (P = 0.972)</t>
         </is>
       </c>
     </row>
@@ -21122,47 +21122,47 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>8.059</t>
+          <t>8.324</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>7.853</t>
+          <t>7.940</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>8.126</t>
+          <t>8.431</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>8.334</t>
+          <t>8.352</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>8.171</t>
+          <t>8.213</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>8.380</t>
+          <t>8.391</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>0.274 (P = 0.001)</t>
+          <t>0.028 (P = 0.687)</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>0.318 (P = 0.070)</t>
+          <t>0.273 (P = 0.114)</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>0.254 (P = 0.006)</t>
+          <t>-0.040 (P = 0.598)</t>
         </is>
       </c>
     </row>
@@ -21397,47 +21397,47 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>8.964</t>
+          <t>9.181</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>8.493</t>
+          <t>8.720</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>9.115</t>
+          <t>9.311</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>9.152</t>
+          <t>9.156</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>8.952</t>
+          <t>8.982</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>9.209</t>
+          <t>9.205</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>0.188 (P = 0.001)</t>
+          <t>-0.025 (P = 0.682)</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>0.458 (P = 0.000)</t>
+          <t>0.261 (P = 0.091)</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>0.094 (P = 0.150)</t>
+          <t>-0.106 (P = 0.107)</t>
         </is>
       </c>
     </row>
@@ -21672,47 +21672,47 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>8.234</t>
+          <t>8.524</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>8.005</t>
+          <t>8.300</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>8.308</t>
+          <t>8.588</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>8.563</t>
+          <t>8.572</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>8.513</t>
+          <t>8.527</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>8.577</t>
+          <t>8.584</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>0.329 (P = 0.000)</t>
+          <t>0.047 (P = 0.469)</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>0.508 (P = 0.002)</t>
+          <t>0.227 (P = 0.170)</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>0.269 (P = 0.005)</t>
+          <t>-0.004 (P = 0.955)</t>
         </is>
       </c>
     </row>
@@ -21947,47 +21947,47 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>8.346</t>
+          <t>8.548</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>8.256</t>
+          <t>8.391</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>8.375</t>
+          <t>8.592</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>8.578</t>
+          <t>8.598</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>8.662</t>
+          <t>8.686</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>8.554</t>
+          <t>8.573</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.002)</t>
+          <t>0.051 (P = 0.448)</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>0.406 (P = 0.004)</t>
+          <t>0.295 (P = 0.063)</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>0.178 (P = 0.037)</t>
+          <t>-0.020 (P = 0.789)</t>
         </is>
       </c>
     </row>
@@ -22222,47 +22222,47 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>8.095</t>
+          <t>8.274</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>8.046</t>
+          <t>8.227</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>8.111</t>
+          <t>8.287</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>8.221</t>
+          <t>8.241</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>8.387</t>
+          <t>8.400</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>8.173</t>
+          <t>8.196</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>0.126 (P = 0.094)</t>
+          <t>-0.033 (P = 0.655)</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>0.340 (P = 0.017)</t>
+          <t>0.173 (P = 0.298)</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>0.063 (P = 0.474)</t>
+          <t>-0.092 (P = 0.256)</t>
         </is>
       </c>
     </row>
@@ -22497,47 +22497,47 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>8.303</t>
+          <t>8.586</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>7.932</t>
+          <t>8.094</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>8.422</t>
+          <t>8.723</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>8.536</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>8.291</t>
+          <t>8.321</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>8.606</t>
+          <t>8.636</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>0.233 (P = 0.003)</t>
+          <t>-0.018 (P = 0.795)</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>0.359 (P = 0.032)</t>
+          <t>0.226 (P = 0.179)</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>0.184 (P = 0.039)</t>
+          <t>-0.087 (P = 0.266)</t>
         </is>
       </c>
     </row>
@@ -22772,22 +22772,22 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>7.786</t>
+          <t>7.827</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>7.702</t>
+          <t>7.739</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>7.813</t>
+          <t>7.853</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>7.844</t>
+          <t>7.855</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -22797,22 +22797,22 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.845</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>0.058 (P = 0.460)</t>
+          <t>0.028 (P = 0.704)</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>0.188 (P = 0.246)</t>
+          <t>0.151 (P = 0.384)</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>0.017 (P = 0.851)</t>
+          <t>-0.008 (P = 0.920)</t>
         </is>
       </c>
     </row>
@@ -23047,47 +23047,47 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>7.446</t>
+          <t>7.749</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>7.416</t>
+          <t>7.582</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>7.456</t>
+          <t>7.797</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>7.703</t>
+          <t>7.713</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>7.667</t>
+          <t>7.659</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>7.713</t>
+          <t>7.729</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>0.257 (P = 0.005)</t>
+          <t>-0.035 (P = 0.599)</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>0.251 (P = 0.162)</t>
+          <t>0.077 (P = 0.648)</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>0.258 (P = 0.016)</t>
+          <t>-0.068 (P = 0.346)</t>
         </is>
       </c>
     </row>
@@ -23322,47 +23322,47 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>8.391</t>
+          <t>8.610</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>8.098</t>
+          <t>8.373</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>8.486</t>
+          <t>8.679</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>8.574</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>8.482</t>
+          <t>8.477</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>8.601</t>
+          <t>8.594</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>0.183 (P = 0.013)</t>
+          <t>-0.043 (P = 0.541)</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>0.384 (P = 0.015)</t>
+          <t>0.105 (P = 0.514)</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>0.115 (P = 0.169)</t>
+          <t>-0.085 (P = 0.271)</t>
         </is>
       </c>
     </row>
@@ -23597,47 +23597,47 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>7.822</t>
+          <t>7.788</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>7.580</t>
+          <t>7.751</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>7.900</t>
+          <t>7.799</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>7.744</t>
+          <t>7.740</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>7.734</t>
+          <t>7.713</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>7.747</t>
+          <t>7.748</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>-0.078 (P = 0.344)</t>
+          <t>-0.048 (P = 0.527)</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>0.154 (P = 0.363)</t>
+          <t>-0.038 (P = 0.821)</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>-0.154 (P = 0.103)</t>
+          <t>-0.051 (P = 0.549)</t>
         </is>
       </c>
     </row>
@@ -23872,47 +23872,47 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>8.038</t>
+          <t>8.082</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>7.726</t>
+          <t>7.753</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>8.140</t>
+          <t>8.177</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>8.110</t>
+          <t>8.116</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>8.009</t>
+          <t>8.019</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>8.139</t>
+          <t>8.144</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>0.072 (P = 0.343)</t>
+          <t>0.033 (P = 0.666)</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>0.283 (P = 0.094)</t>
+          <t>0.265 (P = 0.149)</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>-0.001 (P = 0.993)</t>
+          <t>-0.034 (P = 0.690)</t>
         </is>
       </c>
     </row>
@@ -24147,47 +24147,47 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>8.753</t>
+          <t>8.879</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>8.332</t>
+          <t>8.541</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>8.888</t>
+          <t>8.976</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>8.873</t>
+          <t>8.871</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>8.554</t>
+          <t>8.564</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>8.964</t>
+          <t>8.959</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>0.120 (P = 0.051)</t>
+          <t>-0.008 (P = 0.894)</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>0.222 (P = 0.139)</t>
+          <t>0.023 (P = 0.881)</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>0.076 (P = 0.249)</t>
+          <t>-0.017 (P = 0.794)</t>
         </is>
       </c>
     </row>
@@ -24422,47 +24422,47 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>8.465</t>
+          <t>8.559</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>8.001</t>
+          <t>8.224</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>8.615</t>
+          <t>8.656</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>8.516</t>
+          <t>8.523</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>8.459</t>
+          <t>8.447</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>8.532</t>
+          <t>8.545</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>0.051 (P = 0.452)</t>
+          <t>-0.036 (P = 0.555)</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>0.459 (P = 0.002)</t>
+          <t>0.224 (P = 0.134)</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>-0.083 (P = 0.273)</t>
+          <t>-0.110 (P = 0.089)</t>
         </is>
       </c>
     </row>
@@ -24697,17 +24697,17 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>0.714</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>0.511</t>
+          <t>0.630</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>0.783</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -24727,17 +24727,17 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>0.099 (P = 0.000)</t>
+          <t>0.032 (P = 0.003)</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>0.155 (P = 0.000)</t>
+          <t>0.035 (P = 0.207)</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>0.073 (P = 0.000)</t>
+          <t>0.031 (P = 0.006)</t>
         </is>
       </c>
     </row>
@@ -24948,17 +24948,17 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -25169,17 +25169,17 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -25390,17 +25390,17 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -25580,47 +25580,47 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>56.082</t>
+          <t>58.239</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>59.471</t>
+          <t>57.409</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>54.979</t>
+          <t>58.473</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>59.365</t>
+          <t>59.629</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>58.986</t>
+          <t>59.670</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>59.472</t>
+          <t>59.618</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>3.283 (P = 0.004)</t>
+          <t>1.390 (P = 0.003)</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>-0.485 (P = 0.837)</t>
+          <t>2.260 (P = 0.049)</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>4.493 (P = 0.001)</t>
+          <t>1.145 (P = 0.024)</t>
         </is>
       </c>
     </row>
@@ -25854,47 +25854,47 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>35.098</t>
+          <t>31.026</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>44.463</t>
+          <t>43.823</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>32.095</t>
+          <t>27.446</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>31.701</t>
+          <t>31.393</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>42.697</t>
+          <t>42.493</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>28.600</t>
+          <t>28.288</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>-3.396 (P = 0.001)</t>
+          <t>0.367 (P = 0.566)</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>-1.765 (P = 0.447)</t>
+          <t>-1.330 (P = 0.368)</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>-3.495 (P = 0.003)</t>
+          <t>0.842 (P = 0.233)</t>
         </is>
       </c>
     </row>
@@ -26129,47 +26129,47 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>46.536</t>
+          <t>48.295</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>51.106</t>
+          <t>50.776</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>45.117</t>
+          <t>47.614</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>50.572</t>
+          <t>50.740</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>54.133</t>
+          <t>54.568</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>49.555</t>
+          <t>49.690</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>4.037 (P = 0.000)</t>
+          <t>2.445 (P = 0.001)</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>3.027 (P = 0.158)</t>
+          <t>3.792 (P = 0.031)</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>4.439 (P = 0.000)</t>
+          <t>2.076 (P = 0.007)</t>
         </is>
       </c>
     </row>
@@ -26403,47 +26403,47 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>51.524</t>
+          <t>54.388</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>54.877</t>
+          <t>52.725</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>50.478</t>
+          <t>54.834</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>55.135</t>
+          <t>55.711</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>55.766</t>
+          <t>56.815</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>54.956</t>
+          <t>55.416</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>3.611 (P = 0.004)</t>
+          <t>1.323 (P = 0.012)</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>0.889 (P = 0.711)</t>
+          <t>4.090 (P = 0.002)</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>4.478 (P = 0.002)</t>
+          <t>0.582 (P = 0.299)</t>
         </is>
       </c>
     </row>
@@ -26677,47 +26677,47 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>5.316</t>
+          <t>5.499</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>5.920</t>
+          <t>5.766</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>5.123</t>
+          <t>5.425</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>5.698</t>
+          <t>5.704</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>6.023</t>
+          <t>6.115</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>5.606</t>
+          <t>5.590</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>0.382 (P = 0.000)</t>
+          <t>0.205 (P = 0.000)</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>0.103 (P = 0.601)</t>
+          <t>0.349 (P = 0.014)</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>0.483 (P = 0.000)</t>
+          <t>0.165 (P = 0.010)</t>
         </is>
       </c>
     </row>
